--- a/misc_exercises/iteration.xlsx
+++ b/misc_exercises/iteration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyhogeveen/Dropbox/Fall_2022/teaching/DSPN/DSPN_Fall2022_Git/misc_exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C78D31-9F6F-6D41-BD56-966891152818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457F356-7E64-D740-8BD3-CE368B22F796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{119374B4-FCCE-F649-9290-50E123888EE3}"/>
+    <workbookView xWindow="35100" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{119374B4-FCCE-F649-9290-50E123888EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,13 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D9C889-505E-D04F-B1B5-CEF3B58273D9}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -402,14 +404,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>D2+$B$3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="0">C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="1">D3+$B$3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>C9+1</f>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>D9+$B$3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>C10+1</f>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>D10+$B$3</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>C11+1</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>D11+$B$3</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
